--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/results/El Gossos.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/results/El Gossos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="38">
   <si>
     <t>firstName</t>
   </si>
@@ -100,7 +100,31 @@
     <t>Vorsmann</t>
   </si>
   <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Ellenbeck</t>
+  </si>
+  <si>
     <t>checker</t>
+  </si>
+  <si>
+    <t>Tanja</t>
+  </si>
+  <si>
+    <t>Wächter</t>
+  </si>
+  <si>
+    <t>Heinz</t>
+  </si>
+  <si>
+    <t>Gaberle</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Teller</t>
   </si>
 </sst>
 </file>
@@ -167,11 +191,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -225,24 +249,27 @@
         <v>12</v>
       </c>
       <c r="E2" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F2" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G2" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H2" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I2" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J2" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="5"/>
+      <c r="L2" s="6">
+        <v>74.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -258,24 +285,27 @@
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F3" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G3" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H3" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I3" s="3">
         <v>0.0</v>
       </c>
       <c r="J3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="5"/>
+      <c r="L3" s="6">
+        <v>75.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -291,24 +321,27 @@
         <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H4" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="I4" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J4" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5"/>
+      <c r="L4" s="6">
+        <v>86.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -324,24 +357,27 @@
         <v>12</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H5" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I5" s="3">
         <v>0.0</v>
       </c>
       <c r="J5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="5"/>
+      <c r="L5" s="6">
+        <v>71.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -357,24 +393,27 @@
         <v>12</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F6" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G6" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H6" s="3">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I6" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J6" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="5"/>
+      <c r="L6" s="6">
+        <v>101.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -390,24 +429,27 @@
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H7" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I7" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J7" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="5"/>
+      <c r="L7" s="6">
+        <v>86.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -423,24 +465,27 @@
         <v>12</v>
       </c>
       <c r="E8" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F8" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G8" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H8" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I8" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J8" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="5"/>
+      <c r="L8" s="6">
+        <v>86.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -456,24 +501,27 @@
         <v>12</v>
       </c>
       <c r="E9" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F9" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G9" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H9" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I9" s="3">
         <v>0.0</v>
       </c>
       <c r="J9" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5"/>
+      <c r="L9" s="6">
+        <v>92.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -489,24 +537,27 @@
         <v>12</v>
       </c>
       <c r="E10" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F10" s="3">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G10" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H10" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I10" s="3">
         <v>0.0</v>
       </c>
       <c r="J10" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="5"/>
+      <c r="L10" s="6">
+        <v>65.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -522,24 +573,27 @@
         <v>12</v>
       </c>
       <c r="E11" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F11" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G11" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="H11" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I11" s="3">
         <v>0.0</v>
       </c>
       <c r="J11" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="5"/>
+      <c r="L11" s="6">
+        <v>70.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -555,24 +609,27 @@
         <v>12</v>
       </c>
       <c r="E12" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F12" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G12" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H12" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I12" s="3">
         <v>0.0</v>
       </c>
       <c r="J12" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="5"/>
+      <c r="L12" s="6">
+        <v>86.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -588,24 +645,27 @@
         <v>12</v>
       </c>
       <c r="E13" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F13" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G13" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H13" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I13" s="3">
         <v>0.0</v>
       </c>
       <c r="J13" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="5"/>
+      <c r="L13" s="6">
+        <v>71.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -621,24 +681,27 @@
         <v>12</v>
       </c>
       <c r="E14" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F14" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G14" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H14" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I14" s="3">
         <v>0.0</v>
       </c>
       <c r="J14" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="5"/>
+      <c r="L14" s="6">
+        <v>70.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -654,24 +717,27 @@
         <v>12</v>
       </c>
       <c r="E15" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F15" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G15" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="H15" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I15" s="3">
         <v>0.0</v>
       </c>
       <c r="J15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="5"/>
+      <c r="L15" s="6">
+        <v>59.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -702,9 +768,12 @@
         <v>0.0</v>
       </c>
       <c r="J16" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="5"/>
+      <c r="L16" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -735,9 +804,12 @@
         <v>0.0</v>
       </c>
       <c r="J17" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="5"/>
+      <c r="L17" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -753,24 +825,27 @@
         <v>12</v>
       </c>
       <c r="E18" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F18" s="3">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="G18" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H18" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I18" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J18" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="5"/>
+      <c r="L18" s="6">
+        <v>89.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -786,24 +861,27 @@
         <v>12</v>
       </c>
       <c r="E19" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F19" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G19" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H19" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I19" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J19" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="5"/>
+      <c r="L19" s="6">
+        <v>76.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -819,24 +897,27 @@
         <v>12</v>
       </c>
       <c r="E20" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F20" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G20" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H20" s="3">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I20" s="3">
         <v>0.0</v>
       </c>
       <c r="J20" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="5"/>
+      <c r="L20" s="6">
+        <v>72.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -852,24 +933,27 @@
         <v>12</v>
       </c>
       <c r="E21" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F21" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G21" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H21" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="I21" s="3">
         <v>0.0</v>
       </c>
       <c r="J21" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5"/>
+      <c r="L21" s="6">
+        <v>89.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
@@ -885,24 +969,27 @@
         <v>12</v>
       </c>
       <c r="E22" s="3">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="F22" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G22" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="H22" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I22" s="3">
         <v>0.0</v>
       </c>
       <c r="J22" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="5"/>
+      <c r="L22" s="6">
+        <v>71.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
@@ -918,24 +1005,27 @@
         <v>12</v>
       </c>
       <c r="E23" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="F23" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G23" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H23" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I23" s="3">
         <v>0.0</v>
       </c>
       <c r="J23" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="5"/>
+      <c r="L23" s="6">
+        <v>65.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
@@ -951,24 +1041,27 @@
         <v>12</v>
       </c>
       <c r="E24" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F24" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G24" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H24" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I24" s="3">
         <v>0.0</v>
       </c>
       <c r="J24" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="5"/>
+      <c r="L24" s="6">
+        <v>82.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
@@ -984,24 +1077,27 @@
         <v>12</v>
       </c>
       <c r="E25" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F25" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G25" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H25" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I25" s="3">
         <v>0.0</v>
       </c>
       <c r="J25" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="5"/>
+      <c r="L25" s="6">
+        <v>77.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
@@ -1032,9 +1128,12 @@
         <v>0.0</v>
       </c>
       <c r="J26" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="5"/>
+      <c r="L26" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
@@ -1065,9 +1164,12 @@
         <v>0.0</v>
       </c>
       <c r="J27" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="5"/>
+      <c r="L27" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
@@ -1098,9 +1200,12 @@
         <v>0.0</v>
       </c>
       <c r="J28" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="5"/>
+      <c r="L28" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
@@ -1131,9 +1236,12 @@
         <v>0.0</v>
       </c>
       <c r="J29" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="5"/>
+      <c r="L29" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
@@ -1149,24 +1257,27 @@
         <v>12</v>
       </c>
       <c r="E30" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F30" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G30" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H30" s="3">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I30" s="3">
         <v>0.0</v>
       </c>
       <c r="J30" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="5"/>
+      <c r="L30" s="6">
+        <v>72.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
@@ -1182,24 +1293,27 @@
         <v>12</v>
       </c>
       <c r="E31" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F31" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G31" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H31" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I31" s="3">
         <v>0.0</v>
       </c>
       <c r="J31" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="5"/>
+      <c r="L31" s="6">
+        <v>82.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
@@ -1215,24 +1329,27 @@
         <v>12</v>
       </c>
       <c r="E32" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F32" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="G32" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H32" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I32" s="3">
         <v>0.0</v>
       </c>
       <c r="J32" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="5"/>
+      <c r="L32" s="6">
+        <v>87.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
@@ -1248,24 +1365,27 @@
         <v>12</v>
       </c>
       <c r="E33" s="3">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="F33" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G33" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H33" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I33" s="3">
         <v>0.0</v>
       </c>
       <c r="J33" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="5"/>
+      <c r="L33" s="6">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
@@ -1281,24 +1401,27 @@
         <v>12</v>
       </c>
       <c r="E34" s="3">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="F34" s="3">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G34" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H34" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I34" s="3">
         <v>0.0</v>
       </c>
       <c r="J34" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="5"/>
+      <c r="L34" s="6">
+        <v>56.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
@@ -1314,24 +1437,27 @@
         <v>12</v>
       </c>
       <c r="E35" s="3">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="F35" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G35" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H35" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I35" s="3">
         <v>0.0</v>
       </c>
       <c r="J35" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="5"/>
+      <c r="L35" s="6">
+        <v>62.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
@@ -1347,24 +1473,27 @@
         <v>12</v>
       </c>
       <c r="E36" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F36" s="3">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G36" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H36" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I36" s="3">
         <v>0.0</v>
       </c>
       <c r="J36" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="5"/>
+      <c r="L36" s="6">
+        <v>59.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
@@ -1380,24 +1509,27 @@
         <v>12</v>
       </c>
       <c r="E37" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="F37" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G37" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H37" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I37" s="3">
         <v>0.0</v>
       </c>
       <c r="J37" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="5"/>
+      <c r="L37" s="6">
+        <v>54.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
@@ -1413,24 +1545,27 @@
         <v>12</v>
       </c>
       <c r="E38" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F38" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G38" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H38" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I38" s="3">
         <v>0.0</v>
       </c>
       <c r="J38" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="5"/>
+      <c r="L38" s="6">
+        <v>65.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
@@ -1446,24 +1581,27 @@
         <v>12</v>
       </c>
       <c r="E39" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F39" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G39" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H39" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I39" s="3">
         <v>0.0</v>
       </c>
       <c r="J39" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="5"/>
+      <c r="L39" s="6">
+        <v>72.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
@@ -1479,24 +1617,27 @@
         <v>12</v>
       </c>
       <c r="E40" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F40" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G40" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H40" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I40" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J40" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="5"/>
+      <c r="L40" s="6">
+        <v>85.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
@@ -1512,256 +1653,315 @@
         <v>12</v>
       </c>
       <c r="E41" s="3">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="F41" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G41" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H41" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I41" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J41" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="5"/>
+      <c r="L41" s="6">
+        <v>83.0</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C42" s="3">
         <v>1.0</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="6">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J42" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C43" s="3">
         <v>2.0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E43" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F43" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G43" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H43" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I43" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J43" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="5"/>
+      <c r="L43" s="6">
+        <v>85.0</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C44" s="3">
         <v>1.0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E44" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="F44" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G44" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H44" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I44" s="3">
         <v>0.0</v>
       </c>
       <c r="J44" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="5"/>
+      <c r="L44" s="6">
+        <v>59.0</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C45" s="3">
         <v>2.0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E45" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="F45" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G45" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H45" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I45" s="3">
         <v>0.0</v>
       </c>
       <c r="J45" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="5"/>
+      <c r="L45" s="6">
+        <v>63.0</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="6"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C46" s="3">
         <v>3.0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E46" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F46" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G46" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H46" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I46" s="3">
         <v>0.0</v>
       </c>
       <c r="J46" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="5"/>
+      <c r="L46" s="6">
+        <v>80.0</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C47" s="3">
         <v>4.0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E47" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="F47" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G47" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H47" s="3">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I47" s="3">
         <v>0.0</v>
       </c>
       <c r="J47" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="5"/>
+      <c r="L47" s="6">
+        <v>59.0</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C48" s="3">
         <v>3.0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E48" s="3">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="F48" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G48" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H48" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I48" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J48" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="5"/>
+      <c r="L48" s="6">
+        <v>90.0</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C49" s="3">
         <v>4.0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E49" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F49" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G49" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H49" s="3">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I49" s="3">
         <v>0.0</v>
       </c>
       <c r="J49" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="5"/>
+      <c r="L49" s="6">
+        <v>84.0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2"/>
